--- a/Germination_survey_field_data_20200413_EEB.xlsx
+++ b/Germination_survey_field_data_20200413_EEB.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -411,11 +410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7318,6 +7317,1336 @@
         <v>14</v>
       </c>
     </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>14</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199">
+        <v>0.5</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201">
+        <v>1.5</v>
+      </c>
+      <c r="F201" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s">
+        <v>14</v>
+      </c>
+      <c r="H201" t="s">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>14</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203">
+        <v>2.5</v>
+      </c>
+      <c r="F203" t="s">
+        <v>14</v>
+      </c>
+      <c r="G203" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" t="s">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="F204" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
+      <c r="H204" t="s">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204">
+        <v>3</v>
+      </c>
+      <c r="K204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205">
+        <v>3.5</v>
+      </c>
+      <c r="F205" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" t="s">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205">
+        <v>4</v>
+      </c>
+      <c r="K205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206">
+        <v>4</v>
+      </c>
+      <c r="F206" t="s">
+        <v>14</v>
+      </c>
+      <c r="G206" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" t="s">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>14</v>
+      </c>
+      <c r="J206">
+        <v>5</v>
+      </c>
+      <c r="K206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>4.5</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
+      </c>
+      <c r="G207" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" t="s">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207">
+        <v>9</v>
+      </c>
+      <c r="K207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208">
+        <v>11</v>
+      </c>
+      <c r="K208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209">
+        <v>5.5</v>
+      </c>
+      <c r="F209" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" t="s">
+        <v>14</v>
+      </c>
+      <c r="H209" t="s">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209">
+        <v>7</v>
+      </c>
+      <c r="K209" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s">
+        <v>14</v>
+      </c>
+      <c r="H210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>14</v>
+      </c>
+      <c r="J210">
+        <v>3</v>
+      </c>
+      <c r="K210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211">
+        <v>6.5</v>
+      </c>
+      <c r="F211" t="s">
+        <v>14</v>
+      </c>
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211">
+        <v>3</v>
+      </c>
+      <c r="K211" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212">
+        <v>7</v>
+      </c>
+      <c r="F212" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s">
+        <v>14</v>
+      </c>
+      <c r="H212" t="s">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>14</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213">
+        <v>7.5</v>
+      </c>
+      <c r="F213" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" t="s">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213">
+        <v>4</v>
+      </c>
+      <c r="K213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214">
+        <v>8</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s">
+        <v>14</v>
+      </c>
+      <c r="H214" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>14</v>
+      </c>
+      <c r="J214">
+        <v>5</v>
+      </c>
+      <c r="K214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215">
+        <v>8.5</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>14</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216">
+        <v>9</v>
+      </c>
+      <c r="F216" t="s">
+        <v>14</v>
+      </c>
+      <c r="G216" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" t="s">
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>14</v>
+      </c>
+      <c r="J216">
+        <v>2</v>
+      </c>
+      <c r="K216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217">
+        <v>9.5</v>
+      </c>
+      <c r="F217" t="s">
+        <v>14</v>
+      </c>
+      <c r="G217" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218">
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>14</v>
+      </c>
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" t="s">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219">
+        <v>10.5</v>
+      </c>
+      <c r="F219" t="s">
+        <v>14</v>
+      </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220">
+        <v>11</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" t="s">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221">
+        <v>11.5</v>
+      </c>
+      <c r="F221" t="s">
+        <v>14</v>
+      </c>
+      <c r="G221" t="s">
+        <v>14</v>
+      </c>
+      <c r="H221" t="s">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222">
+        <v>12</v>
+      </c>
+      <c r="F222" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" t="s">
+        <v>14</v>
+      </c>
+      <c r="I222" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223">
+        <v>12.5</v>
+      </c>
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B225" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225">
+        <v>13.5</v>
+      </c>
+      <c r="F225" t="s">
+        <v>14</v>
+      </c>
+      <c r="G225" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" t="s">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>15</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226">
+        <v>14</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>14</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227">
+        <v>14.5</v>
+      </c>
+      <c r="F227" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228">
+        <v>15</v>
+      </c>
+      <c r="F228" t="s">
+        <v>14</v>
+      </c>
+      <c r="G228" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229">
+        <v>15.5</v>
+      </c>
+      <c r="F229" t="s">
+        <v>14</v>
+      </c>
+      <c r="G229" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>16</v>
+      </c>
+      <c r="F230" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B231" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231">
+        <v>16.5</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+      <c r="G231" t="s">
+        <v>14</v>
+      </c>
+      <c r="H231" t="s">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>14</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s">
+        <v>15</v>
+      </c>
+      <c r="D232" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232">
+        <v>17</v>
+      </c>
+      <c r="F232" t="s">
+        <v>14</v>
+      </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232">
+        <v>4</v>
+      </c>
+      <c r="K232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233">
+        <v>17.5</v>
+      </c>
+      <c r="F233" t="s">
+        <v>14</v>
+      </c>
+      <c r="G233" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>14</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234">
+        <v>18</v>
+      </c>
+      <c r="F234" t="s">
+        <v>14</v>
+      </c>
+      <c r="G234" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235">
+        <v>18.5</v>
+      </c>
+      <c r="F235" t="s">
+        <v>14</v>
+      </c>
+      <c r="G235" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
+      </c>
+      <c r="I235" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235">
+        <v>2</v>
+      </c>
+      <c r="K235" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
